--- a/tradept/Excel/Localization/Main/english/B宝箱信息表_Chests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/B宝箱信息表_Chests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\sands-of-salzaar-traducao-portugues-brasileiro\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322BC1A9-31A7-4851-A498-3A06EB31CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE292F84-362A-45DC-9B20-95C456CE836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -352,46 +352,46 @@
     <t>一个刻有神秘文字的石柱</t>
   </si>
   <si>
-    <t>Um cristal curioso que, de alguma forma, consegue forjar caminhos através do tempo e espaço.</t>
-  </si>
-  <si>
-    <t>Um caminho que leva a uma mina abandonada.</t>
-  </si>
-  <si>
-    <t>Um local de reunião secreto para os Oryx.</t>
-  </si>
-  <si>
-    <t>O caminho para o Vale de Sirocco.</t>
-  </si>
-  <si>
-    <t>Um caminho que leva a algumas cavernas de calcário ao lado do Grande Rio.</t>
-  </si>
-  <si>
-    <t>Um marco indicativo.</t>
-  </si>
-  <si>
-    <t>Parece ser um local de adoração.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este é um dos estátuas do Guerreiro do Fogo. </t>
-  </si>
-  <si>
-    <t>As lendas falam de um terrível Yeti que reside nesta caverna.</t>
-  </si>
-  <si>
-    <t>Um acampamento temporário.</t>
-  </si>
-  <si>
-    <t>Água misteriosa.</t>
-  </si>
-  <si>
-    <t>Uma estranha névoa paira aqui.</t>
-  </si>
-  <si>
-    <t>A névoa paira à beira do lago.</t>
-  </si>
-  <si>
-    <t>Um pilar de pedra inscrito com glifos misteriosos.</t>
+    <t xml:space="preserve">Um cristal curioso, de alguma forma capaz de abrir caminhos através do tempo e do espaço.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma estrada que leva a uma mina abandonada.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um local secreto de encontro dos Oryx.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caminho para o Vale de Siroco.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma estrada que leva a algumas cavernas de calcário, às margens do Grande Rio.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece ser um local de adoração.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta é uma das estátuas do Guerreiro de Fogo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lendas falam de um terrível Yeti que habita esta caverna.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um acampamento temporário.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água misteriosa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma névoa estranha paira aqui.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A névoa se acumula à beira do lago.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um pilar de pedra gravado com glifos misteriosos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma placa de sinalização.  </t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -934,13 +931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
@@ -1015,7 +1013,7 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="2"/>
@@ -1423,8 +1421,8 @@
       <c r="B70" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>115</v>
+      <c r="C70" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="D70" s="3"/>
     </row>
@@ -1466,7 +1464,7 @@
         <v>86</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -1478,7 +1476,7 @@
         <v>86</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D77" s="9"/>
     </row>
@@ -1490,7 +1488,7 @@
         <v>89</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -1502,7 +1500,7 @@
         <v>89</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" s="9"/>
     </row>
@@ -1514,7 +1512,7 @@
         <v>89</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D80" s="9"/>
     </row>
@@ -1526,7 +1524,7 @@
         <v>89</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -1538,7 +1536,7 @@
         <v>89</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -1550,7 +1548,7 @@
         <v>89</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -1562,7 +1560,7 @@
         <v>89</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -1574,7 +1572,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" s="9"/>
     </row>
@@ -1586,7 +1584,7 @@
         <v>98</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D86" s="9"/>
     </row>
@@ -1598,7 +1596,7 @@
         <v>100</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="9"/>
     </row>
@@ -1610,7 +1608,7 @@
         <v>102</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D88" s="9"/>
     </row>
@@ -1622,7 +1620,7 @@
         <v>104</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D89" s="9"/>
     </row>
@@ -1634,7 +1632,7 @@
         <v>106</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D90" s="9"/>
     </row>
@@ -1646,7 +1644,7 @@
         <v>104</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D91" s="9"/>
     </row>
@@ -1658,7 +1656,7 @@
         <v>109</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="9"/>
     </row>
